--- a/Uren Grenspoal - Stephan.xlsx
+++ b/Uren Grenspoal - Stephan.xlsx
@@ -380,7 +380,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,14 +410,14 @@
         <v>42267</v>
       </c>
       <c r="B2" s="5">
-        <v>0.72916666666666663</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2">
         <f>SUM(B2:B30)</f>
-        <v>0.72916666666666663</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2"/>
     </row>

--- a/Uren Grenspoal - Stephan.xlsx
+++ b/Uren Grenspoal - Stephan.xlsx
@@ -82,7 +82,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -94,9 +94,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,7 +381,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,109 +411,111 @@
         <v>42267</v>
       </c>
       <c r="B2" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2">
         <f>SUM(B2:B30)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
+      <c r="B15" s="6"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
+      <c r="B16" s="6"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -520,98 +523,98 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="B30" s="5"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -659,5 +662,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Uren Grenspoal - Stephan.xlsx
+++ b/Uren Grenspoal - Stephan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephan\Desktop\Projects\Grenspoal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Grenspoal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Datum</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Website template</t>
+  </si>
+  <si>
+    <t>Website prijzen</t>
   </si>
 </sst>
 </file>
@@ -418,14 +421,20 @@
       </c>
       <c r="D2" s="2">
         <f>SUM(B2:B30)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="1">
+        <v>42271</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>

--- a/Uren Grenspoal - Stephan.xlsx
+++ b/Uren Grenspoal - Stephan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Datum</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Website prijzen</t>
+  </si>
+  <si>
+    <t>Template + Portaal</t>
   </si>
 </sst>
 </file>
@@ -384,7 +387,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +424,7 @@
       </c>
       <c r="D2" s="2">
         <f>SUM(B2:B30)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -439,9 +442,15 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>

--- a/Uren Grenspoal - Stephan.xlsx
+++ b/Uren Grenspoal - Stephan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Datum</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Template + Portaal</t>
+  </si>
+  <si>
+    <t>Scrolling + Portaal</t>
   </si>
 </sst>
 </file>
@@ -424,7 +427,7 @@
       </c>
       <c r="D2" s="2">
         <f>SUM(B2:B30)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -455,9 +458,15 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="1">
+        <v>42278</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>

--- a/Uren Grenspoal - Stephan.xlsx
+++ b/Uren Grenspoal - Stephan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Datum</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>Scrolling + Portaal</t>
+  </si>
+  <si>
+    <t>Template aanpassingen</t>
+  </si>
+  <si>
+    <t>DB bug oplossen</t>
   </si>
 </sst>
 </file>
@@ -103,13 +109,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -125,9 +131,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -165,7 +171,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -237,7 +243,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -390,7 +396,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,7 +433,7 @@
       </c>
       <c r="D2" s="2">
         <f>SUM(B2:B30)</f>
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -471,16 +477,28 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="1">
+        <v>42379</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>

--- a/Uren Grenspoal - Stephan.xlsx
+++ b/Uren Grenspoal - Stephan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Datum</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>DB bug oplossen</t>
+  </si>
+  <si>
+    <t>Portaal (mailing) + contact + temp page</t>
   </si>
 </sst>
 </file>
@@ -396,7 +399,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +436,7 @@
       </c>
       <c r="D2" s="2">
         <f>SUM(B2:B30)</f>
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -503,9 +506,15 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="1">
+        <v>42380</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>

--- a/Uren Grenspoal - Stephan.xlsx
+++ b/Uren Grenspoal - Stephan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Datum</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Portaal (mailing) + contact + temp page</t>
+  </si>
+  <si>
+    <t>Portaal tabs + nieuws op index en portaal</t>
   </si>
 </sst>
 </file>
@@ -436,7 +439,7 @@
       </c>
       <c r="D2" s="2">
         <f>SUM(B2:B30)</f>
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -519,9 +522,15 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="1">
+        <v>42382</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>

--- a/Uren Grenspoal - Stephan.xlsx
+++ b/Uren Grenspoal - Stephan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Datum</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Portaal tabs + nieuws op index en portaal</t>
+  </si>
+  <si>
+    <t>Nieuws items stylen + mysql DB onlin zetten</t>
   </si>
 </sst>
 </file>
@@ -401,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,7 +442,7 @@
       </c>
       <c r="D2" s="2">
         <f>SUM(B2:B30)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -535,9 +538,15 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="1">
+        <v>42394</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>

--- a/Uren Grenspoal - Stephan.xlsx
+++ b/Uren Grenspoal - Stephan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Grenspoal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Applications\XAMPP\htdocs\Grenspoal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -124,7 +124,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -140,9 +140,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -180,7 +180,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -252,7 +252,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -405,7 +405,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +483,10 @@
         <v>7</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <f>SUM(B4:B10)</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">

--- a/Uren Grenspoal - Stephan.xlsx
+++ b/Uren Grenspoal - Stephan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Applications\XAMPP\htdocs\Grenspoal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Grenspoal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Datum</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Nieuws items stylen + mysql DB onlin zetten</t>
+  </si>
+  <si>
+    <t>Nieuws items editen (start)</t>
   </si>
 </sst>
 </file>
@@ -124,7 +127,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -140,9 +143,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -180,7 +183,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -252,7 +255,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -405,7 +408,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,7 +445,7 @@
       </c>
       <c r="D2" s="2">
         <f>SUM(B2:B30)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -484,8 +487,8 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
-        <f>SUM(B4:B10)</f>
-        <v>12</v>
+        <f>SUM(B4:B29)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -554,9 +557,15 @@
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="1">
+        <v>42402</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>

--- a/Uren Grenspoal - Stephan.xlsx
+++ b/Uren Grenspoal - Stephan.xlsx
@@ -405,7 +405,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Uren Grenspoal - Stephan.xlsx
+++ b/Uren Grenspoal - Stephan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Nieuws items editen (start)</t>
+  </si>
+  <si>
+    <t>Thema aangepast, bugfixes en nieuws carousel slider</t>
   </si>
 </sst>
 </file>
@@ -408,7 +411,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,7 +448,7 @@
       </c>
       <c r="D2" s="2">
         <f>SUM(B2:B30)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -488,7 +491,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2">
         <f>SUM(B4:B29)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -570,9 +573,15 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="1">
+        <v>42429</v>
+      </c>
+      <c r="B12" s="5">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>

--- a/Uren Grenspoal - Stephan.xlsx
+++ b/Uren Grenspoal - Stephan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Datum</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Thema aangepast, bugfixes en nieuws carousel slider</t>
+  </si>
+  <si>
+    <t>Thema aangepast en foto's geplaatst</t>
   </si>
 </sst>
 </file>
@@ -411,7 +414,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,7 +451,7 @@
       </c>
       <c r="D2" s="2">
         <f>SUM(B2:B30)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -491,7 +494,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2">
         <f>SUM(B4:B29)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -586,9 +589,15 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="1">
+        <v>42430</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>

--- a/Uren Grenspoal - Stephan.xlsx
+++ b/Uren Grenspoal - Stephan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Datum</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Merge naar nieuwe webhost</t>
+  </si>
+  <si>
+    <t>Laatste fixes voor nieuws/stijl/menu</t>
   </si>
 </sst>
 </file>
@@ -417,7 +420,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +457,7 @@
       </c>
       <c r="D2" s="2">
         <f>SUM(B2:B30)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -497,7 +500,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2">
         <f>SUM(B4:B29)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -618,8 +621,15 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="1">
+        <v>42436</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>

--- a/Uren Grenspoal - Stephan.xlsx
+++ b/Uren Grenspoal - Stephan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Grenspoal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Applications\XAMPP\htdocs\Grenspoal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -136,7 +136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -152,9 +152,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -192,7 +192,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -264,7 +264,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,7 +453,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2">
-        <f>SUM(B2:B30)</f>
+        <f>SUM(B:B)</f>
         <v>22</v>
       </c>
       <c r="E2" s="2"/>
@@ -495,10 +495,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2">
-        <f>SUM(B4:B29)</f>
-        <v>18</v>
-      </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
